--- a/myapp/app-34/data.xlsx
+++ b/myapp/app-34/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>no</t>
   </si>
@@ -259,61 +259,55 @@
     <t>members</t>
   </si>
   <si>
-    <t>p1xx</t>
-  </si>
-  <si>
-    <t>xxxx</t>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2024-1-1</t>
   </si>
   <si>
     <t>2024-2-2</t>
   </si>
   <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>2024-3-3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>2024-4-4</t>
+  </si>
+  <si>
+    <t>2,5,12</t>
+  </si>
+  <si>
+    <t>p4x</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
     <t>2024-5-5</t>
   </si>
   <si>
-    <t>2,6,9</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>2024-3-3</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>2024-1-1</t>
-  </si>
-  <si>
-    <t>2024-4-4</t>
-  </si>
-  <si>
-    <t>2,5,12</t>
-  </si>
-  <si>
-    <t>p4x</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>ppp</t>
-  </si>
-  <si>
-    <t>12,13,15</t>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -724,7 +718,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,7 +775,7 @@
         <v>87</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>88</v>
@@ -798,16 +792,16 @@
         <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -815,13 +809,13 @@
         <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>87</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>88</v>
@@ -832,22 +826,42 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="D7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>99</v>
+      <c r="F7" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
